--- a/2.2.4-test/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/2.2.4-test/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T09:35:25+00:00</t>
+    <t>2025-12-15T10:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
